--- a/supplementary-info/procurement_of_chemicals/procurement_details_of_SAMPL6_compounds.xlsx
+++ b/supplementary-info/procurement_of_chemicals/procurement_details_of_SAMPL6_compounds.xlsx
@@ -308,9 +308,6 @@
     <t>SAMPL6 Molecule ID</t>
   </si>
   <si>
-    <t>Experimental ID</t>
-  </si>
-  <si>
     <t>SM01</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>Supplier reported purity</t>
+  </si>
+  <si>
+    <t>Experimental Molecule ID</t>
   </si>
 </sst>
 </file>
@@ -475,8 +475,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -503,17 +509,23 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -817,7 +829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -838,7 +850,7 @@
         <v>94</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -847,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
@@ -862,12 +874,12 @@
         <v>37</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -899,7 +911,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -925,7 +937,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -948,7 +960,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -971,7 +983,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -994,7 +1006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1017,7 +1029,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1049,7 +1061,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1081,7 +1093,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1110,7 +1122,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1142,7 +1154,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -1174,7 +1186,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
@@ -1200,7 +1212,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -1226,7 +1238,7 @@
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1251,7 +1263,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1274,7 +1286,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -1297,7 +1309,7 @@
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -1320,7 +1332,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1343,7 +1355,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1366,7 +1378,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -1389,7 +1401,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -1412,7 +1424,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -1435,7 +1447,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -1458,7 +1470,7 @@
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>75</v>
